--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C900B6-9745-8A4C-917C-4203B7A1C640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E729DEF-AA77-C946-86D9-F360E9B06DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21860" yWindow="6760" windowWidth="37860" windowHeight="17180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="7060" windowWidth="37860" windowHeight="17180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library Elements" sheetId="1" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1753,12 +1753,12 @@
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -1768,17 +1768,17 @@
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -1788,15 +1788,38 @@
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
+    <sortCondition ref="A2:A9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100549613C24315B4448A1E41B4719784FE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d93bc61055e9fc41fcd19f7bd54afd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d732dc85-02c4-4698-b283-fa972b8844f9" xmlns:ns3="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64abf6ef7f177d3de22be4dd574d709e" ns2:_="" ns3:_="">
     <xsd:import namespace="d732dc85-02c4-4698-b283-fa972b8844f9"/>
@@ -1997,27 +2020,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
+    <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FE90CA-7165-4041-8354-50A71455E101}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2034,23 +2056,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
-    <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E729DEF-AA77-C946-86D9-F360E9B06DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B2BAC-245F-F84C-A711-65DEC2F4A4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="7060" windowWidth="37860" windowHeight="17180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,15 +281,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>Scenario independent configuration</t>
-  </si>
-  <si>
-    <t>Scenario dependent configuration</t>
-  </si>
-  <si>
-    <t>Organizational units</t>
-  </si>
-  <si>
     <t>Master Data</t>
   </si>
   <si>
@@ -309,18 +300,34 @@
   </si>
   <si>
     <t>Available Categories</t>
+  </si>
+  <si>
+    <t>Scenario Dependent Configuration</t>
+  </si>
+  <si>
+    <t>Scenario Independent Configuration</t>
+  </si>
+  <si>
+    <t>Organizational Units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -413,20 +420,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1630,7 +1638,7 @@
     <mergeCell ref="E3:F6"/>
     <mergeCell ref="K3:K6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1658,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1738,7 +1746,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1748,47 +1756,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
+      <c r="A4" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
+      <c r="A7" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1800,15 +1808,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
@@ -1817,6 +1816,15 @@
     <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2021,20 +2029,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
     <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B2BAC-245F-F84C-A711-65DEC2F4A4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A35910E-0E48-6F41-A3FF-AC882C0770AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="7060" windowWidth="37860" windowHeight="17180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <t>Master Data</t>
   </si>
   <si>
-    <t>WRICEFs</t>
-  </si>
-  <si>
     <t>Authorization</t>
   </si>
   <si>
@@ -308,19 +305,29 @@
     <t>Scenario Independent Configuration</t>
   </si>
   <si>
-    <t>Organizational Units</t>
+    <t>Organizational Unit</t>
+  </si>
+  <si>
+    <t>WRICEF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -420,18 +427,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -948,17 +956,17 @@
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="3"/>
@@ -1033,15 +1041,15 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>5.2</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1114,15 +1122,15 @@
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
         <v>5.3</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1195,15 +1203,15 @@
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
         <v>5.4</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1638,7 +1646,7 @@
     <mergeCell ref="E3:F6"/>
     <mergeCell ref="K3:K6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1666,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1746,7 +1754,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1756,12 +1764,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -1770,33 +1778,33 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>35</v>
+      <c r="A4" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
+      <c r="A9" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1819,15 +1827,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100549613C24315B4448A1E41B4719784FE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d93bc61055e9fc41fcd19f7bd54afd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d732dc85-02c4-4698-b283-fa972b8844f9" xmlns:ns3="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64abf6ef7f177d3de22be4dd574d709e" ns2:_="" ns3:_="">
     <xsd:import namespace="d732dc85-02c4-4698-b283-fa972b8844f9"/>
@@ -2028,6 +2027,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
   <ds:schemaRefs>
@@ -2040,14 +2048,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FE90CA-7165-4041-8354-50A71455E101}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2064,4 +2064,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A35910E-0E48-6F41-A3FF-AC882C0770AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59D101-AD58-417A-879E-35E14A5F21FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="7060" windowWidth="37860" windowHeight="17180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library Elements" sheetId="1" r:id="rId1"/>
     <sheet name="Element Types" sheetId="3" r:id="rId2"/>
     <sheet name="Categories" sheetId="4" r:id="rId3"/>
+    <sheet name="Help Portal" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Library Elements'!$A$1:$J$1</definedName>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -309,13 +310,16 @@
   </si>
   <si>
     <t>WRICEF</t>
+  </si>
+  <si>
+    <t>For detailed information on the creation of documents via spreadsheet, see SAP Help Portal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +400,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +427,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -425,11 +443,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,14 +459,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{A57228FD-7515-41D7-A8CC-64BACB27649E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{E1045223-2BED-420A-8A7F-D24F4EA59C71}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -773,7 +799,7 @@
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="20.6640625" style="2" customWidth="1"/>
@@ -786,7 +812,7 @@
     <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +890,7 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
     </row>
-    <row r="2" spans="1:71" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -945,7 +971,7 @@
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
     </row>
-    <row r="3" spans="1:71" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -956,17 +982,17 @@
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="3"/>
@@ -1030,7 +1056,7 @@
       <c r="BR3" s="3"/>
       <c r="BS3" s="3"/>
     </row>
-    <row r="4" spans="1:71" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1041,15 +1067,15 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>5.2</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1111,7 +1137,7 @@
       <c r="BR4" s="3"/>
       <c r="BS4" s="3"/>
     </row>
-    <row r="5" spans="1:71" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1122,15 +1148,15 @@
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
         <v>5.3</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1192,7 +1218,7 @@
       <c r="BR5" s="3"/>
       <c r="BS5" s="3"/>
     </row>
-    <row r="6" spans="1:71" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1203,15 +1229,15 @@
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
         <v>5.4</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1273,7 +1299,7 @@
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
     </row>
-    <row r="9" spans="1:71" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1346,7 +1372,7 @@
       <c r="BR9" s="3"/>
       <c r="BS9" s="3"/>
     </row>
-    <row r="12" spans="1:71" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1419,7 +1445,7 @@
       <c r="BR12" s="3"/>
       <c r="BS12" s="3"/>
     </row>
-    <row r="13" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1494,7 +1520,7 @@
       <c r="BR13" s="3"/>
       <c r="BS13" s="3"/>
     </row>
-    <row r="14" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1567,7 +1593,7 @@
       <c r="BR14" s="3"/>
       <c r="BS14" s="3"/>
     </row>
-    <row r="15" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1661,7 +1687,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" style="2" customWidth="1"/>
@@ -1669,7 +1695,7 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1678,7 +1704,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1687,7 +1713,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +1722,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1705,7 +1731,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1714,7 +1740,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1723,22 +1749,22 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1753,57 +1779,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0303B768-7198-F346-AE46-E4635DF74FC2}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1811,6 +1837,46 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
     <sortCondition ref="A2:A9"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F8865-6568-43EE-85C4-2FD9BB5A44FB}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A4:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="10.6640625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:H4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="SAP Help Portal." xr:uid="{3D4D9661-9313-4A9A-80B2-7FD711CC2F0E}"/>
+    <hyperlink ref="A4:H4" r:id="rId2" display="For detailed information on the creation of documents via spreadsheet, see SAP Help Portal." xr:uid="{243B2EED-9DDC-44B3-BCEC-E6D765B25392}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59D101-AD58-417A-879E-35E14A5F21FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699151D0-9895-4759-B731-63BC49150961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="66795" yWindow="3450" windowWidth="25935" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library Elements" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>For detailed information on the creation of documents via spreadsheet, see SAP Help Portal.</t>
+  </si>
+  <si>
+    <t>External URL</t>
+  </si>
+  <si>
+    <t>External Name</t>
   </si>
 </sst>
 </file>
@@ -794,25 +800,27 @@
   </sheetPr>
   <dimension ref="A1:BS15"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.80859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="20.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.47265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.47265625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="27" style="2" customWidth="1"/>
     <col min="10" max="10" width="32" style="2" customWidth="1"/>
-    <col min="11" max="11" width="47.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="24" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="2"/>
+    <col min="13" max="13" width="16.234375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.09375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:71" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,8 +857,12 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -890,7 +902,7 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
     </row>
-    <row r="2" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -971,7 +983,7 @@
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
     </row>
-    <row r="3" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1068,7 @@
       <c r="BR3" s="3"/>
       <c r="BS3" s="3"/>
     </row>
-    <row r="4" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1137,7 +1149,7 @@
       <c r="BR4" s="3"/>
       <c r="BS4" s="3"/>
     </row>
-    <row r="5" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1218,7 +1230,7 @@
       <c r="BR5" s="3"/>
       <c r="BS5" s="3"/>
     </row>
-    <row r="6" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1311,7 @@
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
     </row>
-    <row r="9" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1372,7 +1384,7 @@
       <c r="BR9" s="3"/>
       <c r="BS9" s="3"/>
     </row>
-    <row r="12" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1445,7 +1457,7 @@
       <c r="BR12" s="3"/>
       <c r="BS12" s="3"/>
     </row>
-    <row r="13" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1520,7 +1532,7 @@
       <c r="BR13" s="3"/>
       <c r="BS13" s="3"/>
     </row>
-    <row r="14" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1593,7 +1605,7 @@
       <c r="BR14" s="3"/>
       <c r="BS14" s="3"/>
     </row>
-    <row r="15" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1687,15 +1699,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.80859375" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.80859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.80859375" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="16384" width="10.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1704,7 +1716,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1725,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1722,7 +1734,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1731,7 +1743,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1740,7 +1752,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1749,22 +1761,22 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1783,52 +1795,52 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
@@ -1848,16 +1860,16 @@
   </sheetPr>
   <dimension ref="A4:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="16384" width="10.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
@@ -1882,14 +1894,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2094,21 +2104,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
-    <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2133,9 +2142,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
+    <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699151D0-9895-4759-B731-63BC49150961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B2CFB-9643-4A5C-AE58-D809B642A592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66795" yWindow="3450" windowWidth="25935" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library Elements" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Library Elements'!$A$1:$J$1</definedName>
+    <definedName name="Configuration">'Element Types'!$B$2:$B$5</definedName>
+    <definedName name="Configuration_Activity">'Element Types'!$C$2:$C$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -202,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -279,9 +281,6 @@
     <t>IMG Activity</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Master Data</t>
   </si>
   <si>
@@ -300,12 +299,6 @@
     <t>Available Categories</t>
   </si>
   <si>
-    <t>Scenario Dependent Configuration</t>
-  </si>
-  <si>
-    <t>Scenario Independent Configuration</t>
-  </si>
-  <si>
     <t>Organizational Unit</t>
   </si>
   <si>
@@ -319,25 +312,24 @@
   </si>
   <si>
     <t>External Name</t>
+  </si>
+  <si>
+    <t>Scenario-Dependent Configuration</t>
+  </si>
+  <si>
+    <t>Scenario-Independent Configuration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -415,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,8 +431,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -448,30 +446,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -798,11 +809,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BS15"/>
+  <dimension ref="A1:BS10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -821,47 +832,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
+      <c r="M1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -903,28 +914,28 @@
       <c r="AZ1" s="3"/>
     </row>
     <row r="2" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -984,32 +995,32 @@
       <c r="BS2" s="3"/>
     </row>
     <row r="3" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="F3" s="12"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1069,28 +1080,28 @@
       <c r="BS3" s="3"/>
     </row>
     <row r="4" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
         <v>5.2</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1150,28 +1161,28 @@
       <c r="BS4" s="3"/>
     </row>
     <row r="5" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
         <v>5.3</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1231,28 +1242,28 @@
       <c r="BS5" s="3"/>
     </row>
     <row r="6" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>5.4</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1310,6 +1321,16 @@
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
+    </row>
+    <row r="7" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
@@ -1384,299 +1405,10 @@
       <c r="BR9" s="3"/>
       <c r="BS9" s="3"/>
     </row>
-    <row r="12" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-    </row>
-    <row r="13" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-    </row>
-    <row r="14" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="3"/>
-      <c r="BS14" s="3"/>
-    </row>
-    <row r="15" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
+    <row r="10" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1684,16 +1416,39 @@
     <mergeCell ref="E3:F6"/>
     <mergeCell ref="K3:K6"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Element Type" sqref="D2:D10" xr:uid="{87AC2146-AB06-4554-96CD-0ACC9F574EA7}">
+      <formula1>INDIRECT(SUBSTITUTE(C2," ","_"))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" prompt=" " xr:uid="{F964434D-22F3-4FB7-8F3A-6D5AEAA1F833}">
+          <x14:formula1>
+            <xm:f>Categories!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Library Type" prompt=" " xr:uid="{62750D3C-FA6B-4236-8F03-74C363772A60}">
+          <x14:formula1>
+            <xm:f>'Element Types'!$B$1:$C$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0148C08-9615-D040-B920-96C17CC67CC7}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1702,86 +1457,56 @@
   <sheetFormatPr defaultColWidth="10.80859375" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18.80859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.80859375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.046875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.80859375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3"/>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
+      <c r="A2" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A4" s="9"/>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="9"/>
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1792,7 +1517,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -1801,48 +1526,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
+      <c r="A1" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
+      <c r="A4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6" s="6" t="s">
-        <v>32</v>
+      <c r="A6" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
+      <c r="A7" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
+      <c r="A9" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1866,12 +1591,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="8"/>
+    <col min="1" max="16384" width="10.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A4" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1894,6 +1619,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1902,7 +1638,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100549613C24315B4448A1E41B4719784FE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d93bc61055e9fc41fcd19f7bd54afd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d732dc85-02c4-4698-b283-fa972b8844f9" xmlns:ns3="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64abf6ef7f177d3de22be4dd574d709e" ns2:_="" ns3:_="">
     <xsd:import namespace="d732dc85-02c4-4698-b283-fa972b8844f9"/>
@@ -2103,18 +1839,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
+    <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2122,7 +1858,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FE90CA-7165-4041-8354-50A71455E101}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2139,15 +1875,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
-    <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Configuration and Configuration Activity.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B2CFB-9643-4A5C-AE58-D809B642A592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F424F5-867D-47D5-8882-7C0994F3FFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library Elements" sheetId="1" r:id="rId1"/>
-    <sheet name="Element Types" sheetId="3" r:id="rId2"/>
+    <sheet name="Library &amp; Element Types" sheetId="3" r:id="rId2"/>
     <sheet name="Categories" sheetId="4" r:id="rId3"/>
     <sheet name="Help Portal" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Library Elements'!$A$1:$J$1</definedName>
-    <definedName name="Configuration">'Element Types'!$B$2:$B$5</definedName>
-    <definedName name="Configuration_Activity">'Element Types'!$C$2:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Library Elements'!$A$1:$O$6</definedName>
+    <definedName name="Configuration">'Library &amp; Element Types'!$B$2:$B$5</definedName>
+    <definedName name="Configuration_Activity">'Library &amp; Element Types'!$C$2:$C$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -90,6 +90,40 @@
           </rPr>
           <t xml:space="preserve">
 Mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A4224679-94ED-4978-BDAF-7B24D92C2FF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory</t>
         </r>
       </text>
     </comment>
@@ -171,7 +205,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-System Group, Component not allowed for configuration activities - ignore or warn</t>
+System Group and Solution Component not allowed for configuration activities. Warn or ignore.</t>
         </r>
       </text>
     </comment>
@@ -195,7 +229,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Description is not allowed for configuration activities. Ignore or warn.</t>
+Description is not allowed for configuration activities. Warn or ignore.</t>
         </r>
       </text>
     </comment>
@@ -204,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -290,12 +324,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Available Element Type</t>
-  </si>
-  <si>
     <t>Available Categories</t>
   </si>
   <si>
@@ -318,32 +346,27 @@
   </si>
   <si>
     <t>Scenario-Independent Configuration</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Library Types</t>
+  </si>
+  <si>
+    <t>Element Types</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -406,6 +429,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -433,12 +476,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -455,34 +498,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -809,614 +886,269 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BS10"/>
+  <dimension ref="A1:BQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="25.80859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.47265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.47265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32" style="2" customWidth="1"/>
-    <col min="11" max="11" width="47.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.234375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.09375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.80859375" style="2"/>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.76171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.80859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.76171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.94921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:69" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-    </row>
-    <row r="2" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="5" t="s">
+      <c r="N1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+    </row>
+    <row r="2" spans="1:69" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>5</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-    </row>
-    <row r="3" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A3" s="5" t="s">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:69" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
+      <c r="F3" s="10"/>
+      <c r="I3" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-    </row>
-    <row r="4" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="5" t="s">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:69" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="I4" s="2">
         <v>5.2</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-    </row>
-    <row r="5" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5" s="5" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:69" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="I5" s="2">
         <v>5.3</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-    </row>
-    <row r="6" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6" s="5" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:69" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="I6" s="2">
         <v>5.4</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
-    </row>
-    <row r="7" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:71" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="3"/>
-    </row>
-    <row r="10" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:69" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="L9" s="2"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
+      <c r="BP9" s="5"/>
+      <c r="BQ9" s="5"/>
+    </row>
+    <row r="10" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="L10" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E3:F6"/>
     <mergeCell ref="K3:K6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Element Type" sqref="D2:D10" xr:uid="{87AC2146-AB06-4554-96CD-0ACC9F574EA7}">
       <formula1>INDIRECT(SUBSTITUTE(C2," ","_"))</formula1>
@@ -1428,17 +1160,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Library Type" prompt=" " xr:uid="{62750D3C-FA6B-4236-8F03-74C363772A60}">
+          <x14:formula1>
+            <xm:f>'Library &amp; Element Types'!$B$1:$C$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C20</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" prompt=" " xr:uid="{F964434D-22F3-4FB7-8F3A-6D5AEAA1F833}">
           <x14:formula1>
-            <xm:f>Categories!$A$2:$A$9</xm:f>
+            <xm:f>Categories!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Library Type" prompt=" " xr:uid="{62750D3C-FA6B-4236-8F03-74C363772A60}">
-          <x14:formula1>
-            <xm:f>'Element Types'!$B$1:$C$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1450,56 +1182,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0148C08-9615-D040-B920-96C17CC67CC7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.80859375" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="18.80859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.80859375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="12"/>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A4" s="9"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="12"/>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A5" s="9"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="12"/>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1514,65 +1243,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0303B768-7198-F346-AE46-E4635DF74FC2}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A8">
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1585,26 +1308,24 @@
   </sheetPr>
   <dimension ref="A4:H4"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="6"/>
+    <col min="1" max="16384" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1619,17 +1340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1638,7 +1348,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100549613C24315B4448A1E41B4719784FE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d93bc61055e9fc41fcd19f7bd54afd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d732dc85-02c4-4698-b283-fa972b8844f9" xmlns:ns3="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64abf6ef7f177d3de22be4dd574d709e" ns2:_="" ns3:_="">
     <xsd:import namespace="d732dc85-02c4-4698-b283-fa972b8844f9"/>
@@ -1839,18 +1549,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
-    <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d732dc85-02c4-4698-b283-fa972b8844f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1858,7 +1568,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FE90CA-7165-4041-8354-50A71455E101}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1875,4 +1585,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d732dc85-02c4-4698-b283-fa972b8844f9"/>
+    <ds:schemaRef ds:uri="9a63c5a5-df7a-4c5d-9f59-18edb26dfc02"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{0cf7ac0a-4681-4823-ab0b-04ef02c5f873}" enabled="1" method="Standard" siteId="{42f7676c-f455-423c-82f6-dc2d99791af7}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>